--- a/data/trans_orig/CAGE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Clase-trans_orig.xlsx
@@ -1065,7 +1065,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -1634,7 +1634,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -2203,7 +2203,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -2772,7 +2772,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -3341,7 +3341,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -3566,7 +3566,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -3910,7 +3910,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -4479,7 +4479,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -5290,7 +5290,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -5859,7 +5859,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -6428,7 +6428,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -6997,7 +6997,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -7566,7 +7566,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -7791,7 +7791,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -8135,7 +8135,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -8704,7 +8704,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -9515,7 +9515,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -10084,7 +10084,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -10653,7 +10653,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -11222,7 +11222,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -11791,7 +11791,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -12016,7 +12016,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -12360,7 +12360,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -12929,7 +12929,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -13740,7 +13740,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -14309,7 +14309,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -14878,7 +14878,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -15447,7 +15447,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -16016,7 +16016,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -16241,7 +16241,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -16585,7 +16585,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -17154,7 +17154,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
